--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"29003121.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"29503225.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"29003122.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"29503226.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"29003123.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"29503227.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"29003124.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"29503228.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"29003124.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"29503228.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"29503124.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":80,"regname":"修宇-投资人","pwd":"25A60A0B094FBFE126008AB87594B13E","mobilephone":"18675512527","leaveamount":"30003228.00","type":"1","regtime":"2019-03-29 22:58:37.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H15" s="5" t="inlineStr">
